--- a/SchedulingData/static5/pso/scheduling1_18.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_18.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.72</v>
+        <v>79.22</v>
       </c>
       <c r="E2" t="n">
-        <v>26.128</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>51.12</v>
+        <v>41.8</v>
       </c>
       <c r="E3" t="n">
-        <v>26.568</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>71.52</v>
+        <v>67.56</v>
       </c>
       <c r="E4" t="n">
-        <v>25.528</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>47.56</v>
+        <v>70.72</v>
       </c>
       <c r="E5" t="n">
-        <v>25.944</v>
+        <v>26.128</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47.56</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>105.24</v>
+        <v>63</v>
       </c>
       <c r="E6" t="n">
-        <v>22.776</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="7">
@@ -561,226 +561,226 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>79.22</v>
       </c>
       <c r="D7" t="n">
-        <v>79.22</v>
+        <v>153.72</v>
       </c>
       <c r="E7" t="n">
-        <v>27.228</v>
+        <v>21.888</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>79.22</v>
+        <v>70.72</v>
       </c>
       <c r="D8" t="n">
-        <v>148.8</v>
+        <v>152.58</v>
       </c>
       <c r="E8" t="n">
-        <v>23.38</v>
+        <v>21.552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>71.52</v>
+        <v>67.56</v>
       </c>
       <c r="D9" t="n">
-        <v>141.62</v>
+        <v>125.24</v>
       </c>
       <c r="E9" t="n">
-        <v>22.608</v>
+        <v>22.776</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
-        <v>58</v>
+        <v>123.92</v>
       </c>
       <c r="E10" t="n">
-        <v>24.9</v>
+        <v>20.428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>148.8</v>
+        <v>125.24</v>
       </c>
       <c r="D11" t="n">
-        <v>203.7</v>
+        <v>206.14</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>19.296</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>51.12</v>
+        <v>153.72</v>
       </c>
       <c r="D12" t="n">
-        <v>89.26000000000001</v>
+        <v>209.22</v>
       </c>
       <c r="E12" t="n">
-        <v>23.884</v>
+        <v>17.468</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>105.24</v>
+        <v>206.14</v>
       </c>
       <c r="D13" t="n">
-        <v>183.88</v>
+        <v>260</v>
       </c>
       <c r="E13" t="n">
-        <v>18.512</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>203.7</v>
+        <v>123.92</v>
       </c>
       <c r="D14" t="n">
-        <v>247.76</v>
+        <v>193.3</v>
       </c>
       <c r="E14" t="n">
-        <v>16.724</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>247.76</v>
+        <v>152.58</v>
       </c>
       <c r="D15" t="n">
-        <v>277.04</v>
+        <v>214.64</v>
       </c>
       <c r="E15" t="n">
-        <v>14.436</v>
+        <v>18.956</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>65.72</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>147.58</v>
+        <v>56.12</v>
       </c>
       <c r="E16" t="n">
-        <v>21.552</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>141.62</v>
+        <v>209.22</v>
       </c>
       <c r="D17" t="n">
-        <v>222.12</v>
+        <v>258.88</v>
       </c>
       <c r="E17" t="n">
-        <v>19.128</v>
+        <v>14.612</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>222.12</v>
+        <v>41.8</v>
       </c>
       <c r="D18" t="n">
-        <v>286.72</v>
+        <v>118.9</v>
       </c>
       <c r="E18" t="n">
-        <v>15.768</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="19">
@@ -789,207 +789,207 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>147.58</v>
+        <v>118.9</v>
       </c>
       <c r="D19" t="n">
-        <v>198.18</v>
+        <v>166.3</v>
       </c>
       <c r="E19" t="n">
-        <v>17.132</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>198.18</v>
+        <v>214.64</v>
       </c>
       <c r="D20" t="n">
-        <v>261.58</v>
+        <v>269.16</v>
       </c>
       <c r="E20" t="n">
-        <v>14.892</v>
+        <v>14.644</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>89.26000000000001</v>
+        <v>269.16</v>
       </c>
       <c r="D21" t="n">
-        <v>145.14</v>
+        <v>318.96</v>
       </c>
       <c r="E21" t="n">
-        <v>20.916</v>
+        <v>11.284</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>58</v>
+        <v>258.88</v>
       </c>
       <c r="D22" t="n">
-        <v>109.4</v>
+        <v>291.68</v>
       </c>
       <c r="E22" t="n">
-        <v>21.38</v>
+        <v>11.972</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>261.58</v>
+        <v>56.12</v>
       </c>
       <c r="D23" t="n">
-        <v>333.4</v>
+        <v>129.96</v>
       </c>
       <c r="E23" t="n">
-        <v>12.3</v>
+        <v>22.304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>145.14</v>
+        <v>166.3</v>
       </c>
       <c r="D24" t="n">
-        <v>213.76</v>
+        <v>225</v>
       </c>
       <c r="E24" t="n">
-        <v>17.164</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>286.72</v>
+        <v>260</v>
       </c>
       <c r="D25" t="n">
-        <v>336.48</v>
+        <v>307.94</v>
       </c>
       <c r="E25" t="n">
-        <v>12.912</v>
+        <v>13.336</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>213.76</v>
+        <v>225</v>
       </c>
       <c r="D26" t="n">
-        <v>276.06</v>
+        <v>295.5</v>
       </c>
       <c r="E26" t="n">
-        <v>13.564</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>277.04</v>
+        <v>295.5</v>
       </c>
       <c r="D27" t="n">
-        <v>366.64</v>
+        <v>340.82</v>
       </c>
       <c r="E27" t="n">
-        <v>9.096</v>
+        <v>10.228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>183.88</v>
+        <v>307.94</v>
       </c>
       <c r="D28" t="n">
-        <v>255.64</v>
+        <v>370.24</v>
       </c>
       <c r="E28" t="n">
-        <v>15.916</v>
+        <v>10.216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>276.06</v>
+        <v>193.3</v>
       </c>
       <c r="D29" t="n">
-        <v>332.06</v>
+        <v>233.5</v>
       </c>
       <c r="E29" t="n">
-        <v>10.084</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="30">
@@ -998,93 +998,93 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>332.06</v>
+        <v>370.24</v>
       </c>
       <c r="D30" t="n">
-        <v>394.36</v>
+        <v>435.72</v>
       </c>
       <c r="E30" t="n">
-        <v>6.964</v>
+        <v>7.268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>394.36</v>
+        <v>340.82</v>
       </c>
       <c r="D31" t="n">
-        <v>449.26</v>
+        <v>401.02</v>
       </c>
       <c r="E31" t="n">
-        <v>3.584</v>
+        <v>6.848</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>336.48</v>
+        <v>233.5</v>
       </c>
       <c r="D32" t="n">
-        <v>369.28</v>
+        <v>292.32</v>
       </c>
       <c r="E32" t="n">
-        <v>10.272</v>
+        <v>9.448</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>333.4</v>
+        <v>318.96</v>
       </c>
       <c r="D33" t="n">
-        <v>379.08</v>
+        <v>371.08</v>
       </c>
       <c r="E33" t="n">
-        <v>9.352</v>
+        <v>8.692</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>379.08</v>
+        <v>129.96</v>
       </c>
       <c r="D34" t="n">
-        <v>457.88</v>
+        <v>181.36</v>
       </c>
       <c r="E34" t="n">
-        <v>6.052</v>
+        <v>18.784</v>
       </c>
     </row>
     <row r="35">
@@ -1093,131 +1093,131 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>366.64</v>
+        <v>291.68</v>
       </c>
       <c r="D35" t="n">
-        <v>417.14</v>
+        <v>371.16</v>
       </c>
       <c r="E35" t="n">
-        <v>5.676</v>
+        <v>8.124000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>255.64</v>
+        <v>181.36</v>
       </c>
       <c r="D36" t="n">
-        <v>298.14</v>
+        <v>230.44</v>
       </c>
       <c r="E36" t="n">
-        <v>12.796</v>
+        <v>16.496</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>109.4</v>
+        <v>371.16</v>
       </c>
       <c r="D37" t="n">
-        <v>182.8</v>
+        <v>436.66</v>
       </c>
       <c r="E37" t="n">
-        <v>17.64</v>
+        <v>4.704</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>298.14</v>
+        <v>230.44</v>
       </c>
       <c r="D38" t="n">
-        <v>357.56</v>
+        <v>278.94</v>
       </c>
       <c r="E38" t="n">
-        <v>8.484</v>
+        <v>14.256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>182.8</v>
+        <v>292.32</v>
       </c>
       <c r="D39" t="n">
-        <v>253.22</v>
+        <v>341.72</v>
       </c>
       <c r="E39" t="n">
-        <v>14.728</v>
+        <v>6.148</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>357.56</v>
+        <v>278.94</v>
       </c>
       <c r="D40" t="n">
-        <v>425.08</v>
+        <v>339.62</v>
       </c>
       <c r="E40" t="n">
-        <v>5.312</v>
+        <v>11.288</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>253.22</v>
+        <v>341.72</v>
       </c>
       <c r="D41" t="n">
-        <v>312.9</v>
+        <v>414.24</v>
       </c>
       <c r="E41" t="n">
-        <v>10.88</v>
+        <v>2.976</v>
       </c>
     </row>
   </sheetData>
